--- a/output/rtables/biompubdata.xlsx
+++ b/output/rtables/biompubdata.xlsx
@@ -1,101 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jamescookuniversity-my.sharepoint.com/personal/benjamin_cresswell_jcu_edu_au/Documents/Ben PhD/Data &amp; analysis/KimbePreds/output/rtables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_6D6AFDCE8F79A8D366075C52F3CA923662CB8F67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FF7681A-DF2F-0243-A054-CE6E2659BA6A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Reeftype</t>
-  </si>
-  <si>
-    <t>Biomass (kg.150m-2)</t>
-  </si>
-  <si>
-    <t>EMM 95% CI</t>
-  </si>
-  <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>Pairwise contrasts</t>
-  </si>
-  <si>
-    <t>Contrast effect size</t>
-  </si>
-  <si>
-    <t>Contrast 95% CI</t>
-  </si>
-  <si>
-    <t>Contrast 66% CI</t>
-  </si>
-  <si>
-    <t>Pinnacle</t>
-  </si>
-  <si>
-    <t>17.2-36.8</t>
-  </si>
-  <si>
-    <t>Pinnacle - Offshore</t>
-  </si>
-  <si>
-    <t>-1.2-26.6</t>
-  </si>
-  <si>
-    <t>4.4-20.9</t>
-  </si>
-  <si>
-    <t>Offshore</t>
-  </si>
-  <si>
-    <t>8-20.6</t>
-  </si>
-  <si>
-    <t>Pinnacle - Nearshore</t>
-  </si>
-  <si>
-    <t>7.3-32.5</t>
-  </si>
-  <si>
-    <t>12.4-27.4</t>
-  </si>
-  <si>
-    <t>Nearshore</t>
-  </si>
-  <si>
-    <t>3.2-11</t>
-  </si>
-  <si>
-    <t>Offshore - Nearshore</t>
-  </si>
-  <si>
-    <t>-1.6-16.1</t>
-  </si>
-  <si>
-    <t>2-12.5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,17 +24,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,13 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -151,14 +63,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,27 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,24 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,128 +350,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-    <col min="2" max="2" width="7.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="42" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Reeftype</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Biomass (kg.150m-2)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>EMM 95% CI</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>DF</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pairwise contrasts</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast effect size</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast 95% CI</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast ratio</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast ratio 95% CI</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Pinnacle</t>
+        </is>
+      </c>
+      <c r="B2">
+        <v>27</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17.2-36.8</t>
+        </is>
+      </c>
+      <c r="D2">
+        <v>114</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pinnacle - Offshore</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>12.7</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>-1.2-26.6</t>
+        </is>
+      </c>
+      <c r="H2">
+        <v>1.9</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1-3.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Offshore</t>
+        </is>
+      </c>
+      <c r="B3">
+        <v>14.3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>8-20.6</t>
+        </is>
+      </c>
+      <c r="D3">
+        <v>114</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pinnacle - Nearshore</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>19.9</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.3-32.5</t>
+        </is>
+      </c>
+      <c r="H3">
+        <v>3.8</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1.7-8.4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Nearshore</t>
+        </is>
+      </c>
+      <c r="B4">
+        <v>7.1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.2-11</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>114</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Offshore - Nearshore</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>7.2</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>-1.6-16.1</t>
+        </is>
+      </c>
+      <c r="H4">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1">
-        <v>114</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>114</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1">
-        <v>114</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>22</v>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.9-4.7</t>
+        </is>
       </c>
     </row>
   </sheetData>
